--- a/DSLSpeedTestData.xlsx
+++ b/DSLSpeedTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="33">
   <si>
     <t>LAN</t>
   </si>
@@ -113,6 +113,12 @@
   <si>
     <t>22.01.2016</t>
   </si>
+  <si>
+    <t>23.01.2016</t>
+  </si>
+  <si>
+    <t>24.01.2016</t>
+  </si>
 </sst>
 </file>
 
@@ -167,8 +173,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="317">
+  <cellStyleXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,7 +536,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="317">
+  <cellStyles count="339">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -667,6 +695,17 @@
     <cellStyle name="Besuchter Link" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="338" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -825,6 +864,17 @@
     <cellStyle name="Link" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1154,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236:E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7829,6 +7879,731 @@
         <v>15.747999999999999</v>
       </c>
       <c r="I230">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="C231" s="2">
+        <v>11.98</v>
+      </c>
+      <c r="D231" s="2">
+        <v>12.45</v>
+      </c>
+      <c r="E231" s="2">
+        <v>23</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H231">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I231">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="D232" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E232" s="2">
+        <v>27</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H232">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I232">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="C233" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="D233" s="2">
+        <v>20.28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>34</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H233">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I233">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="C234" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="D234" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E234" s="2">
+        <v>35</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I234">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="C235" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E235" s="2">
+        <v>34</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H235">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I235">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B236" s="1">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="C236">
+        <v>8.91</v>
+      </c>
+      <c r="D236">
+        <v>1.06</v>
+      </c>
+      <c r="E236">
+        <v>37</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G236" t="s">
+        <v>16</v>
+      </c>
+      <c r="H236">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I236">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C237">
+        <v>7.11</v>
+      </c>
+      <c r="D237">
+        <v>1.04</v>
+      </c>
+      <c r="E237">
+        <v>38</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G237" t="s">
+        <v>16</v>
+      </c>
+      <c r="H237">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I237">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C238">
+        <v>7.69</v>
+      </c>
+      <c r="D238">
+        <v>0.99</v>
+      </c>
+      <c r="E238">
+        <v>42</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G238" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I238">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="C239">
+        <v>5.57</v>
+      </c>
+      <c r="D239">
+        <v>1.01</v>
+      </c>
+      <c r="E239">
+        <v>38</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G239" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I239">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="C240">
+        <v>5.68</v>
+      </c>
+      <c r="D240">
+        <v>0.95</v>
+      </c>
+      <c r="E240">
+        <v>47</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I240">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C241">
+        <v>2.98</v>
+      </c>
+      <c r="D241">
+        <v>1.17</v>
+      </c>
+      <c r="E241">
+        <v>156</v>
+      </c>
+      <c r="F241" t="s">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>3</v>
+      </c>
+      <c r="H241">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I241">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="C242">
+        <v>3.25</v>
+      </c>
+      <c r="D242">
+        <v>0.89</v>
+      </c>
+      <c r="E242">
+        <v>90</v>
+      </c>
+      <c r="F242" t="s">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>3</v>
+      </c>
+      <c r="H242">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I242">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0.85277777777777775</v>
+      </c>
+      <c r="C243">
+        <v>2.94</v>
+      </c>
+      <c r="D243">
+        <v>0.73</v>
+      </c>
+      <c r="E243">
+        <v>107</v>
+      </c>
+      <c r="F243" t="s">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>3</v>
+      </c>
+      <c r="H243">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I243">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B244" s="1">
+        <v>0.85486111111111107</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E244">
+        <v>190</v>
+      </c>
+      <c r="F244" t="s">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>3</v>
+      </c>
+      <c r="H244">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I244">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="C245">
+        <v>3.55</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>223</v>
+      </c>
+      <c r="F245" t="s">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>3</v>
+      </c>
+      <c r="H245">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I245">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B246" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C246">
+        <v>4.17</v>
+      </c>
+      <c r="D246">
+        <v>1.06</v>
+      </c>
+      <c r="E246">
+        <v>42</v>
+      </c>
+      <c r="F246" t="s">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>3</v>
+      </c>
+      <c r="H246">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I246">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B247" s="1">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E247">
+        <v>46</v>
+      </c>
+      <c r="F247" t="s">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>3</v>
+      </c>
+      <c r="H247">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I247">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="C248">
+        <v>4.12</v>
+      </c>
+      <c r="D248">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E248">
+        <v>94</v>
+      </c>
+      <c r="F248" t="s">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>3</v>
+      </c>
+      <c r="H248">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I248">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C249">
+        <v>4.07</v>
+      </c>
+      <c r="D249">
+        <v>1.07</v>
+      </c>
+      <c r="E249">
+        <v>18</v>
+      </c>
+      <c r="F249" t="s">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>3</v>
+      </c>
+      <c r="H249">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I249">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B250" s="1">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="C250">
+        <v>1.54</v>
+      </c>
+      <c r="D250">
+        <v>0.99</v>
+      </c>
+      <c r="E250">
+        <v>384</v>
+      </c>
+      <c r="F250" t="s">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>3</v>
+      </c>
+      <c r="H250">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I250">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B251" s="1">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="C251">
+        <v>2.1</v>
+      </c>
+      <c r="D251">
+        <v>1.07</v>
+      </c>
+      <c r="E251">
+        <v>62</v>
+      </c>
+      <c r="F251" t="s">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>3</v>
+      </c>
+      <c r="H251">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I251">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="C252">
+        <v>3.56</v>
+      </c>
+      <c r="D252">
+        <v>1.19</v>
+      </c>
+      <c r="E252">
+        <v>18</v>
+      </c>
+      <c r="F252" t="s">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>3</v>
+      </c>
+      <c r="H252">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I252">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0.82847222222222217</v>
+      </c>
+      <c r="C253">
+        <v>3.65</v>
+      </c>
+      <c r="D253">
+        <v>1.05</v>
+      </c>
+      <c r="E253">
+        <v>40</v>
+      </c>
+      <c r="F253" t="s">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>3</v>
+      </c>
+      <c r="H253">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I253">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B254" s="1">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="C254">
+        <v>2.93</v>
+      </c>
+      <c r="D254">
+        <v>1.19</v>
+      </c>
+      <c r="E254">
+        <v>18</v>
+      </c>
+      <c r="F254" t="s">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H254">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I254">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="C255">
+        <v>3.95</v>
+      </c>
+      <c r="D255">
+        <v>1.22</v>
+      </c>
+      <c r="E255">
+        <v>79</v>
+      </c>
+      <c r="F255" t="s">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>3</v>
+      </c>
+      <c r="H255">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I255">
         <v>1.1020000000000001</v>
       </c>
     </row>

--- a/DSLSpeedTestData.xlsx
+++ b/DSLSpeedTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="35">
   <si>
     <t>LAN</t>
   </si>
@@ -119,6 +119,12 @@
   <si>
     <t>24.01.2016</t>
   </si>
+  <si>
+    <t>27.01.2016</t>
+  </si>
+  <si>
+    <t>28.01.2016</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="339">
+  <cellStyleXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -513,8 +519,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -535,8 +569,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="339">
+  <cellStyles count="367">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -706,6 +741,20 @@
     <cellStyle name="Besuchter Link" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -875,6 +924,20 @@
     <cellStyle name="Link" xfId="333" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1204,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236:E255"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D271" sqref="C271:E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8604,6 +8667,586 @@
         <v>15.747999999999999</v>
       </c>
       <c r="I255">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="C256" s="2">
+        <v>11.12</v>
+      </c>
+      <c r="D256" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="E256" s="2">
+        <v>38</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H256">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I256">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="C257" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="D257" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E257" s="2">
+        <v>27</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H257">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I257">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" s="1">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="C258" s="2">
+        <v>10.11</v>
+      </c>
+      <c r="D258" s="2">
+        <v>12.05</v>
+      </c>
+      <c r="E258" s="2">
+        <v>32</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I258">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" s="1">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="C259" s="2">
+        <v>11.23</v>
+      </c>
+      <c r="D259" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="E259" s="2">
+        <v>117</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H259">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I259">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="C260" s="2">
+        <v>11.73</v>
+      </c>
+      <c r="D260" s="2">
+        <v>25.73</v>
+      </c>
+      <c r="E260" s="3">
+        <v>11638</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H260">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I260">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0.86736111111111114</v>
+      </c>
+      <c r="C261" s="2">
+        <v>9.07</v>
+      </c>
+      <c r="D261" s="2">
+        <v>15.66</v>
+      </c>
+      <c r="E261" s="2">
+        <v>578</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H261">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I261">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" s="1">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C262" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="D262" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="E262" s="2">
+        <v>42</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I262">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" s="1">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="C263" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="D263" s="2">
+        <v>14.62</v>
+      </c>
+      <c r="E263" s="2">
+        <v>27</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H263">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I263">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C264" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="D264" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="E264" s="2">
+        <v>23</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I264">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C265" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="D265" s="2">
+        <v>6.37</v>
+      </c>
+      <c r="E265" s="2">
+        <v>27</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H265">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I265">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="C266" s="2">
+        <v>11.64</v>
+      </c>
+      <c r="D266" s="2">
+        <v>23.05</v>
+      </c>
+      <c r="E266" s="2">
+        <v>27</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H266">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I266">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="C267" s="2">
+        <v>11.17</v>
+      </c>
+      <c r="D267" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="E267" s="2">
+        <v>28</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I267">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0.92569444444444438</v>
+      </c>
+      <c r="C268" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="D268" s="2">
+        <v>17</v>
+      </c>
+      <c r="E268" s="2">
+        <v>31</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H268">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I268">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C269" s="2">
+        <v>11.24</v>
+      </c>
+      <c r="D269" s="2">
+        <v>20.73</v>
+      </c>
+      <c r="E269" s="2">
+        <v>44</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H269">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I269">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="C270" s="2">
+        <v>10.82</v>
+      </c>
+      <c r="D270" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="E270" s="2">
+        <v>25</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H270" s="10">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I270" s="10">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C271">
+        <v>9.42</v>
+      </c>
+      <c r="D271">
+        <v>0.99</v>
+      </c>
+      <c r="E271">
+        <v>37</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G271" t="s">
+        <v>16</v>
+      </c>
+      <c r="H271">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I271">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C272">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D272">
+        <v>0.82</v>
+      </c>
+      <c r="E272">
+        <v>38</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G272" t="s">
+        <v>16</v>
+      </c>
+      <c r="H272">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I272">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B273" s="1">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="C273">
+        <v>3.26</v>
+      </c>
+      <c r="D273">
+        <v>0.81</v>
+      </c>
+      <c r="E273">
+        <v>38</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G273" t="s">
+        <v>16</v>
+      </c>
+      <c r="H273">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I273">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B274" s="1">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="C274">
+        <v>6.19</v>
+      </c>
+      <c r="D274">
+        <v>1.04</v>
+      </c>
+      <c r="E274">
+        <v>40</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G274" t="s">
+        <v>16</v>
+      </c>
+      <c r="H274">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I274">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="C275">
+        <v>7.81</v>
+      </c>
+      <c r="D275">
+        <v>0.7</v>
+      </c>
+      <c r="E275">
+        <v>45</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G275" t="s">
+        <v>16</v>
+      </c>
+      <c r="H275">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I275">
         <v>1.1020000000000001</v>
       </c>
     </row>

--- a/DSLSpeedTestData.xlsx
+++ b/DSLSpeedTestData.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maes-\Documents\internetSpeed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="10704" windowHeight="6552" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="35">
   <si>
     <t>LAN</t>
   </si>
@@ -129,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -548,7 +553,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -570,191 +575,194 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="367">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -942,6 +950,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1267,15 +1283,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I275"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="D271" sqref="C271:E275"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="I279" sqref="I279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1349,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1378,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1391,7 +1407,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1436,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1523,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1581,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1610,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1639,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1652,7 +1668,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1697,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1710,7 +1726,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1739,7 +1755,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1768,7 +1784,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1813,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1842,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1871,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1884,7 +1900,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1913,7 +1929,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1942,7 +1958,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1971,7 +1987,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2000,7 +2016,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2045,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -2058,7 +2074,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +2103,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2132,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2190,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -2232,7 +2248,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -2261,7 +2277,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2306,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2319,7 +2335,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -2348,7 +2364,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -2377,7 +2393,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +2422,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -2435,7 +2451,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -2493,7 +2509,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2538,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +2567,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -2580,7 +2596,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2625,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -2638,7 +2654,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -2667,7 +2683,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
@@ -2696,7 +2712,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -2725,7 +2741,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
@@ -2754,7 +2770,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -2783,7 +2799,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2828,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -2841,7 +2857,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -2870,7 +2886,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -2899,7 +2915,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
@@ -2928,7 +2944,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +2973,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -2986,7 +3002,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
@@ -3015,7 +3031,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
@@ -3044,7 +3060,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -3073,7 +3089,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A63" s="2" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3118,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +3147,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
@@ -3160,7 +3176,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
@@ -3189,7 +3205,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +3234,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3263,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A69" s="2" t="s">
         <v>11</v>
       </c>
@@ -3276,7 +3292,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
@@ -3305,7 +3321,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -3334,7 +3350,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
@@ -3363,7 +3379,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A73" s="2" t="s">
         <v>11</v>
       </c>
@@ -3392,7 +3408,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3437,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
@@ -3450,7 +3466,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A76" s="2" t="s">
         <v>11</v>
       </c>
@@ -3479,7 +3495,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
@@ -3508,7 +3524,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -3537,7 +3553,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
@@ -3566,7 +3582,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
@@ -3595,7 +3611,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
@@ -3624,7 +3640,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -3653,7 +3669,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -3682,7 +3698,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -3711,7 +3727,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A85" s="2" t="s">
         <v>12</v>
       </c>
@@ -3740,7 +3756,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
@@ -3769,7 +3785,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
@@ -3798,7 +3814,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
@@ -3827,7 +3843,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3872,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A90" s="2" t="s">
         <v>12</v>
       </c>
@@ -3885,7 +3901,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A91" s="2" t="s">
         <v>12</v>
       </c>
@@ -3914,7 +3930,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
@@ -3943,7 +3959,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
@@ -3972,7 +3988,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
@@ -4001,7 +4017,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A95" s="2" t="s">
         <v>12</v>
       </c>
@@ -4030,7 +4046,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
@@ -4059,7 +4075,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
@@ -4088,7 +4104,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -4117,7 +4133,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
@@ -4146,7 +4162,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A100" s="2" t="s">
         <v>15</v>
       </c>
@@ -4175,7 +4191,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A101" s="2" t="s">
         <v>15</v>
       </c>
@@ -4204,7 +4220,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A102" s="2" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4249,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A103" s="2" t="s">
         <v>15</v>
       </c>
@@ -4262,7 +4278,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A104" s="2" t="s">
         <v>15</v>
       </c>
@@ -4291,7 +4307,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A105" s="2" t="s">
         <v>15</v>
       </c>
@@ -4320,7 +4336,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -4349,7 +4365,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
@@ -4378,7 +4394,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A108" s="2" t="s">
         <v>15</v>
       </c>
@@ -4407,7 +4423,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4436,7 +4452,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -4465,7 +4481,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
@@ -4494,7 +4510,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
@@ -4523,7 +4539,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A113" s="2" t="s">
         <v>15</v>
       </c>
@@ -4552,7 +4568,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A114" s="2" t="s">
         <v>15</v>
       </c>
@@ -4581,7 +4597,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A115" s="2" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +4626,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A116" s="2" t="s">
         <v>17</v>
       </c>
@@ -4639,7 +4655,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A117" s="2" t="s">
         <v>17</v>
       </c>
@@ -4668,7 +4684,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A118" s="2" t="s">
         <v>17</v>
       </c>
@@ -4697,7 +4713,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A119" s="2" t="s">
         <v>17</v>
       </c>
@@ -4726,7 +4742,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A120" s="2" t="s">
         <v>17</v>
       </c>
@@ -4755,7 +4771,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A121" s="2" t="s">
         <v>17</v>
       </c>
@@ -4784,7 +4800,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A122" s="2" t="s">
         <v>17</v>
       </c>
@@ -4813,7 +4829,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A123" s="2" t="s">
         <v>17</v>
       </c>
@@ -4842,7 +4858,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A124" s="2" t="s">
         <v>17</v>
       </c>
@@ -4871,7 +4887,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A125" s="2" t="s">
         <v>17</v>
       </c>
@@ -4900,7 +4916,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A126" s="2" t="s">
         <v>17</v>
       </c>
@@ -4929,7 +4945,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A127" s="2" t="s">
         <v>18</v>
       </c>
@@ -4958,7 +4974,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -4987,7 +5003,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -5016,7 +5032,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A130" s="2" t="s">
         <v>18</v>
       </c>
@@ -5045,7 +5061,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A131" s="2" t="s">
         <v>18</v>
       </c>
@@ -5074,7 +5090,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A132" s="2" t="s">
         <v>18</v>
       </c>
@@ -5103,7 +5119,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A133" s="2" t="s">
         <v>18</v>
       </c>
@@ -5132,7 +5148,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A134" s="2" t="s">
         <v>18</v>
       </c>
@@ -5161,7 +5177,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A135" s="2" t="s">
         <v>19</v>
       </c>
@@ -5190,7 +5206,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A136" s="2" t="s">
         <v>19</v>
       </c>
@@ -5219,7 +5235,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A137" s="2" t="s">
         <v>19</v>
       </c>
@@ -5248,7 +5264,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A138" s="2" t="s">
         <v>19</v>
       </c>
@@ -5277,7 +5293,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A139" s="2" t="s">
         <v>19</v>
       </c>
@@ -5306,7 +5322,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A140" s="2" t="s">
         <v>19</v>
       </c>
@@ -5335,7 +5351,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A141" s="2" t="s">
         <v>19</v>
       </c>
@@ -5364,7 +5380,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A142" s="2" t="s">
         <v>19</v>
       </c>
@@ -5393,7 +5409,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A143" s="2" t="s">
         <v>19</v>
       </c>
@@ -5422,7 +5438,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A144" s="2" t="s">
         <v>19</v>
       </c>
@@ -5451,7 +5467,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A145" s="2" t="s">
         <v>21</v>
       </c>
@@ -5480,7 +5496,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A146" s="1" t="s">
         <v>22</v>
       </c>
@@ -5509,7 +5525,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A147" s="1" t="s">
         <v>22</v>
       </c>
@@ -5538,7 +5554,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A148" s="1" t="s">
         <v>20</v>
       </c>
@@ -5567,7 +5583,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A149" s="1" t="s">
         <v>23</v>
       </c>
@@ -5596,7 +5612,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A150" s="2" t="s">
         <v>20</v>
       </c>
@@ -5625,7 +5641,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A151" s="2" t="s">
         <v>20</v>
       </c>
@@ -5654,7 +5670,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A152" s="2" t="s">
         <v>20</v>
       </c>
@@ -5683,7 +5699,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A153" s="2" t="s">
         <v>20</v>
       </c>
@@ -5712,7 +5728,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A154" s="2" t="s">
         <v>20</v>
       </c>
@@ -5741,7 +5757,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A155" s="2" t="s">
         <v>20</v>
       </c>
@@ -5770,7 +5786,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A156" s="2" t="s">
         <v>20</v>
       </c>
@@ -5799,7 +5815,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A157" s="2" t="s">
         <v>20</v>
       </c>
@@ -5828,7 +5844,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A158" s="2" t="s">
         <v>20</v>
       </c>
@@ -5857,7 +5873,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A159" s="2" t="s">
         <v>24</v>
       </c>
@@ -5886,7 +5902,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A160" s="2" t="s">
         <v>24</v>
       </c>
@@ -5915,7 +5931,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A161" s="2" t="s">
         <v>24</v>
       </c>
@@ -5944,7 +5960,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A162" s="2" t="s">
         <v>24</v>
       </c>
@@ -5973,7 +5989,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A163" s="2" t="s">
         <v>24</v>
       </c>
@@ -6002,7 +6018,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A164" s="2" t="s">
         <v>25</v>
       </c>
@@ -6031,7 +6047,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A165" s="2" t="s">
         <v>25</v>
       </c>
@@ -6060,7 +6076,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A166" s="2" t="s">
         <v>25</v>
       </c>
@@ -6089,7 +6105,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A167" s="2" t="s">
         <v>25</v>
       </c>
@@ -6118,7 +6134,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A168" s="2" t="s">
         <v>25</v>
       </c>
@@ -6147,7 +6163,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A169" s="2" t="s">
         <v>23</v>
       </c>
@@ -6176,7 +6192,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A170" s="2" t="s">
         <v>23</v>
       </c>
@@ -6205,7 +6221,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -6234,7 +6250,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A172" s="2" t="s">
         <v>23</v>
       </c>
@@ -6263,7 +6279,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A173" s="2" t="s">
         <v>23</v>
       </c>
@@ -6292,7 +6308,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A174" s="2" t="s">
         <v>23</v>
       </c>
@@ -6321,7 +6337,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A175" s="2" t="s">
         <v>23</v>
       </c>
@@ -6350,7 +6366,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A176" s="2" t="s">
         <v>23</v>
       </c>
@@ -6379,7 +6395,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A177" s="2" t="s">
         <v>23</v>
       </c>
@@ -6408,7 +6424,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A178" s="2" t="s">
         <v>23</v>
       </c>
@@ -6437,7 +6453,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A179" s="2" t="s">
         <v>23</v>
       </c>
@@ -6466,7 +6482,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A180" s="2" t="s">
         <v>23</v>
       </c>
@@ -6495,7 +6511,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A181" s="2" t="s">
         <v>23</v>
       </c>
@@ -6524,7 +6540,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A182" s="2" t="s">
         <v>23</v>
       </c>
@@ -6553,7 +6569,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A183" s="2" t="s">
         <v>23</v>
       </c>
@@ -6582,7 +6598,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A184" s="2" t="s">
         <v>26</v>
       </c>
@@ -6611,7 +6627,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A185" s="2" t="s">
         <v>26</v>
       </c>
@@ -6640,7 +6656,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A186" s="2" t="s">
         <v>26</v>
       </c>
@@ -6669,7 +6685,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A187" s="2" t="s">
         <v>26</v>
       </c>
@@ -6698,7 +6714,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A188" s="2" t="s">
         <v>26</v>
       </c>
@@ -6727,7 +6743,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A189" s="2" t="s">
         <v>26</v>
       </c>
@@ -6756,7 +6772,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A190" s="2" t="s">
         <v>26</v>
       </c>
@@ -6785,7 +6801,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A191" s="2" t="s">
         <v>26</v>
       </c>
@@ -6814,7 +6830,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A192" s="2" t="s">
         <v>26</v>
       </c>
@@ -6843,7 +6859,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A193" s="2" t="s">
         <v>26</v>
       </c>
@@ -6872,7 +6888,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A194" s="2" t="s">
         <v>26</v>
       </c>
@@ -6901,7 +6917,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A195" s="2" t="s">
         <v>26</v>
       </c>
@@ -6930,7 +6946,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A196" s="2" t="s">
         <v>26</v>
       </c>
@@ -6959,7 +6975,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A197" s="2" t="s">
         <v>26</v>
       </c>
@@ -6988,7 +7004,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A198" s="2" t="s">
         <v>27</v>
       </c>
@@ -7017,7 +7033,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A199" s="2" t="s">
         <v>27</v>
       </c>
@@ -7046,7 +7062,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A200" s="2" t="s">
         <v>27</v>
       </c>
@@ -7075,7 +7091,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A201" s="2" t="s">
         <v>27</v>
       </c>
@@ -7104,7 +7120,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A202" s="2" t="s">
         <v>27</v>
       </c>
@@ -7133,7 +7149,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A203" s="2" t="s">
         <v>28</v>
       </c>
@@ -7162,7 +7178,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A204" s="2" t="s">
         <v>28</v>
       </c>
@@ -7191,7 +7207,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A205" s="2" t="s">
         <v>28</v>
       </c>
@@ -7220,7 +7236,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A206" s="2" t="s">
         <v>28</v>
       </c>
@@ -7249,7 +7265,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A207" s="2" t="s">
         <v>28</v>
       </c>
@@ -7278,7 +7294,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A208" s="2" t="s">
         <v>28</v>
       </c>
@@ -7307,7 +7323,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A209" s="2" t="s">
         <v>28</v>
       </c>
@@ -7336,7 +7352,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A210" s="2" t="s">
         <v>28</v>
       </c>
@@ -7365,7 +7381,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A211" s="2" t="s">
         <v>28</v>
       </c>
@@ -7394,7 +7410,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A212" s="2" t="s">
         <v>28</v>
       </c>
@@ -7423,7 +7439,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A213" s="2" t="s">
         <v>28</v>
       </c>
@@ -7452,7 +7468,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A214" s="2" t="s">
         <v>28</v>
       </c>
@@ -7481,7 +7497,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A215" s="2" t="s">
         <v>28</v>
       </c>
@@ -7510,7 +7526,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A216" s="2" t="s">
         <v>28</v>
       </c>
@@ -7539,7 +7555,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A217" s="2" t="s">
         <v>29</v>
       </c>
@@ -7568,7 +7584,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A218" s="2" t="s">
         <v>29</v>
       </c>
@@ -7597,7 +7613,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A219" s="2" t="s">
         <v>29</v>
       </c>
@@ -7626,7 +7642,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A220" s="2" t="s">
         <v>29</v>
       </c>
@@ -7655,7 +7671,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A221" s="2" t="s">
         <v>29</v>
       </c>
@@ -7684,7 +7700,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A222" s="2" t="s">
         <v>30</v>
       </c>
@@ -7713,7 +7729,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A223" s="2" t="s">
         <v>30</v>
       </c>
@@ -7742,7 +7758,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A224" s="2" t="s">
         <v>30</v>
       </c>
@@ -7771,7 +7787,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A225" s="2" t="s">
         <v>30</v>
       </c>
@@ -7800,7 +7816,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A226" s="2" t="s">
         <v>30</v>
       </c>
@@ -7829,7 +7845,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A227" s="2" t="s">
         <v>30</v>
       </c>
@@ -7858,7 +7874,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A228" s="2" t="s">
         <v>30</v>
       </c>
@@ -7887,7 +7903,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A229" s="2" t="s">
         <v>30</v>
       </c>
@@ -7916,7 +7932,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A230" s="2" t="s">
         <v>30</v>
       </c>
@@ -7945,7 +7961,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A231" s="2" t="s">
         <v>31</v>
       </c>
@@ -7974,7 +7990,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A232" s="2" t="s">
         <v>31</v>
       </c>
@@ -8003,7 +8019,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A233" s="2" t="s">
         <v>31</v>
       </c>
@@ -8032,7 +8048,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A234" s="2" t="s">
         <v>31</v>
       </c>
@@ -8061,7 +8077,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A235" s="2" t="s">
         <v>31</v>
       </c>
@@ -8090,7 +8106,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A236" s="2" t="s">
         <v>32</v>
       </c>
@@ -8119,7 +8135,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A237" s="2" t="s">
         <v>32</v>
       </c>
@@ -8148,7 +8164,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A238" s="2" t="s">
         <v>32</v>
       </c>
@@ -8177,7 +8193,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A239" s="2" t="s">
         <v>32</v>
       </c>
@@ -8206,7 +8222,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A240" s="2" t="s">
         <v>32</v>
       </c>
@@ -8235,7 +8251,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A241" s="2" t="s">
         <v>31</v>
       </c>
@@ -8264,7 +8280,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A242" s="2" t="s">
         <v>31</v>
       </c>
@@ -8293,7 +8309,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A243" s="2" t="s">
         <v>31</v>
       </c>
@@ -8322,7 +8338,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A244" s="2" t="s">
         <v>31</v>
       </c>
@@ -8351,7 +8367,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A245" s="2" t="s">
         <v>31</v>
       </c>
@@ -8380,7 +8396,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A246" s="2" t="s">
         <v>31</v>
       </c>
@@ -8409,7 +8425,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A247" s="2" t="s">
         <v>31</v>
       </c>
@@ -8438,7 +8454,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A248" s="2" t="s">
         <v>31</v>
       </c>
@@ -8467,7 +8483,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A249" s="2" t="s">
         <v>31</v>
       </c>
@@ -8496,7 +8512,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A250" s="2" t="s">
         <v>31</v>
       </c>
@@ -8525,7 +8541,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A251" s="2" t="s">
         <v>31</v>
       </c>
@@ -8554,7 +8570,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A252" s="2" t="s">
         <v>31</v>
       </c>
@@ -8583,7 +8599,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A253" s="2" t="s">
         <v>31</v>
       </c>
@@ -8612,7 +8628,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A254" s="2" t="s">
         <v>31</v>
       </c>
@@ -8641,7 +8657,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A255" s="2" t="s">
         <v>31</v>
       </c>
@@ -8670,7 +8686,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A256" s="2" t="s">
         <v>32</v>
       </c>
@@ -8699,7 +8715,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A257" s="2" t="s">
         <v>32</v>
       </c>
@@ -8728,7 +8744,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A258" s="2" t="s">
         <v>32</v>
       </c>
@@ -8757,7 +8773,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A259" s="2" t="s">
         <v>32</v>
       </c>
@@ -8786,7 +8802,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A260" s="2" t="s">
         <v>32</v>
       </c>
@@ -8815,7 +8831,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A261" s="2" t="s">
         <v>33</v>
       </c>
@@ -8844,7 +8860,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A262" s="2" t="s">
         <v>33</v>
       </c>
@@ -8873,7 +8889,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A263" s="2" t="s">
         <v>33</v>
       </c>
@@ -8902,7 +8918,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A264" s="2" t="s">
         <v>33</v>
       </c>
@@ -8931,7 +8947,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A265" s="2" t="s">
         <v>33</v>
       </c>
@@ -8960,7 +8976,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A266" s="2" t="s">
         <v>33</v>
       </c>
@@ -8989,7 +9005,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A267" s="2" t="s">
         <v>33</v>
       </c>
@@ -9018,7 +9034,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A268" s="2" t="s">
         <v>33</v>
       </c>
@@ -9047,7 +9063,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A269" s="2" t="s">
         <v>33</v>
       </c>
@@ -9076,7 +9092,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A270" s="2" t="s">
         <v>33</v>
       </c>
@@ -9105,7 +9121,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A271" s="2" t="s">
         <v>34</v>
       </c>
@@ -9134,7 +9150,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A272" s="2" t="s">
         <v>34</v>
       </c>
@@ -9163,7 +9179,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A273" s="2" t="s">
         <v>34</v>
       </c>
@@ -9192,7 +9208,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A274" s="2" t="s">
         <v>34</v>
       </c>
@@ -9221,7 +9237,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A275" s="2" t="s">
         <v>34</v>
       </c>
@@ -9250,9 +9266,154 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A276" s="11">
+        <v>42402</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C276">
+        <v>11.68</v>
+      </c>
+      <c r="D276">
+        <v>1.06</v>
+      </c>
+      <c r="E276">
+        <v>31</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G276" t="s">
+        <v>16</v>
+      </c>
+      <c r="H276">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I276">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A277" s="11">
+        <v>42403</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="C277">
+        <v>10.17</v>
+      </c>
+      <c r="D277">
+        <v>0.88</v>
+      </c>
+      <c r="E277">
+        <v>28</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G277" t="s">
+        <v>16</v>
+      </c>
+      <c r="H277">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I277">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A278" s="11">
+        <v>42404</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="C278">
+        <v>10.18</v>
+      </c>
+      <c r="D278">
+        <v>1.02</v>
+      </c>
+      <c r="E278">
+        <v>36</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G278" t="s">
+        <v>16</v>
+      </c>
+      <c r="H278">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I278">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A279" s="11">
+        <v>42405</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="C279">
+        <v>10.24</v>
+      </c>
+      <c r="D279">
+        <v>0.99</v>
+      </c>
+      <c r="E279">
+        <v>40</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G279" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I279">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A280" s="11">
+        <v>42406</v>
+      </c>
+      <c r="B280" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="C280">
+        <v>7.48</v>
+      </c>
+      <c r="D280">
+        <v>0.99</v>
+      </c>
+      <c r="E280">
+        <v>39</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G280" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I280">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DSLSpeedTestData.xlsx
+++ b/DSLSpeedTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="10704" windowHeight="6552" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="10703" windowHeight="6555" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="40">
   <si>
     <t>LAN</t>
   </si>
@@ -133,6 +133,18 @@
   <si>
     <t>surface</t>
   </si>
+  <si>
+    <t>06.02.2016</t>
+  </si>
+  <si>
+    <t>03.02.2016</t>
+  </si>
+  <si>
+    <t>01.02.2016</t>
+  </si>
+  <si>
+    <t>02.02.2016</t>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -589,6 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="367">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1294,18 +1307,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301:D305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="10.796875" style="9"/>
+    <col min="1" max="16384" width="10.8125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,7 +1347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1376,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1421,7 +1434,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1479,7 +1492,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1521,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1608,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1653,7 +1666,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1695,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1724,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1740,7 +1753,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1782,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1811,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1827,7 +1840,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1869,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +1898,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1914,7 +1927,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1943,7 +1956,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +1985,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2072,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2101,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2130,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -2146,7 +2159,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2175,7 +2188,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2217,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2233,7 +2246,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2262,7 +2275,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -2291,7 +2304,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2378,7 +2391,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2420,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2449,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2478,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -2494,7 +2507,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2536,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2594,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2652,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2681,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2710,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -2726,7 +2739,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -2755,7 +2768,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +2797,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2826,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +2855,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -2871,7 +2884,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -2900,7 +2913,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -2929,7 +2942,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -2958,7 +2971,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3058,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -3074,7 +3087,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -3103,7 +3116,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -3161,7 +3174,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3203,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -3219,7 +3232,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -3248,7 +3261,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3290,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3319,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -3335,7 +3348,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +3377,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -3393,7 +3406,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -3422,7 +3435,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -3451,7 +3464,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -3480,7 +3493,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -3538,7 +3551,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -3567,7 +3580,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -3596,7 +3609,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -3625,7 +3638,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3667,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -3683,7 +3696,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -3712,7 +3725,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -3741,7 +3754,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -3770,7 +3783,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -3828,7 +3841,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -3857,7 +3870,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -3915,7 +3928,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -3944,7 +3957,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -3973,7 +3986,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -4031,7 +4044,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -4060,7 +4073,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
@@ -4118,7 +4131,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -4147,7 +4160,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
@@ -4176,7 +4189,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A100" s="1" t="s">
         <v>15</v>
       </c>
@@ -4205,7 +4218,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A101" s="1" t="s">
         <v>15</v>
       </c>
@@ -4234,7 +4247,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -4263,7 +4276,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A103" s="1" t="s">
         <v>15</v>
       </c>
@@ -4292,7 +4305,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104" s="1" t="s">
         <v>15</v>
       </c>
@@ -4321,7 +4334,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A105" s="1" t="s">
         <v>15</v>
       </c>
@@ -4350,7 +4363,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106" s="1" t="s">
         <v>15</v>
       </c>
@@ -4379,7 +4392,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
         <v>15</v>
       </c>
@@ -4408,7 +4421,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A108" s="1" t="s">
         <v>15</v>
       </c>
@@ -4437,7 +4450,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A109" s="1" t="s">
         <v>15</v>
       </c>
@@ -4466,7 +4479,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A110" s="1" t="s">
         <v>15</v>
       </c>
@@ -4495,7 +4508,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A111" s="1" t="s">
         <v>15</v>
       </c>
@@ -4524,7 +4537,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A112" s="1" t="s">
         <v>15</v>
       </c>
@@ -4553,7 +4566,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A113" s="1" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
         <v>15</v>
       </c>
@@ -4611,7 +4624,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -4640,7 +4653,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -4669,7 +4682,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -4698,7 +4711,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -4727,7 +4740,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -4756,7 +4769,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120" s="1" t="s">
         <v>17</v>
       </c>
@@ -4785,7 +4798,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -4814,7 +4827,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A122" s="1" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +4856,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -4872,7 +4885,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -4901,7 +4914,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A126" s="1" t="s">
         <v>17</v>
       </c>
@@ -4959,7 +4972,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A127" s="1" t="s">
         <v>18</v>
       </c>
@@ -4988,7 +5001,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -5017,7 +5030,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -5046,7 +5059,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A130" s="1" t="s">
         <v>18</v>
       </c>
@@ -5075,7 +5088,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
@@ -5104,7 +5117,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
@@ -5133,7 +5146,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -5162,7 +5175,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134" s="1" t="s">
         <v>18</v>
       </c>
@@ -5191,7 +5204,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135" s="1" t="s">
         <v>19</v>
       </c>
@@ -5220,7 +5233,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A136" s="1" t="s">
         <v>19</v>
       </c>
@@ -5249,7 +5262,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137" s="1" t="s">
         <v>19</v>
       </c>
@@ -5278,7 +5291,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A138" s="1" t="s">
         <v>19</v>
       </c>
@@ -5307,7 +5320,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139" s="1" t="s">
         <v>19</v>
       </c>
@@ -5336,7 +5349,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A140" s="1" t="s">
         <v>19</v>
       </c>
@@ -5365,7 +5378,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A141" s="1" t="s">
         <v>19</v>
       </c>
@@ -5394,7 +5407,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A142" s="1" t="s">
         <v>19</v>
       </c>
@@ -5423,7 +5436,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A143" s="1" t="s">
         <v>19</v>
       </c>
@@ -5452,7 +5465,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A144" s="1" t="s">
         <v>19</v>
       </c>
@@ -5481,7 +5494,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -5510,7 +5523,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146" s="10" t="s">
         <v>22</v>
       </c>
@@ -5539,7 +5552,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147" s="10" t="s">
         <v>22</v>
       </c>
@@ -5568,7 +5581,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148" s="10" t="s">
         <v>20</v>
       </c>
@@ -5597,7 +5610,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149" s="10" t="s">
         <v>23</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150" s="1" t="s">
         <v>20</v>
       </c>
@@ -5655,7 +5668,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A151" s="1" t="s">
         <v>20</v>
       </c>
@@ -5684,7 +5697,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152" s="1" t="s">
         <v>20</v>
       </c>
@@ -5713,7 +5726,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153" s="1" t="s">
         <v>20</v>
       </c>
@@ -5742,7 +5755,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
@@ -5771,7 +5784,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155" s="1" t="s">
         <v>20</v>
       </c>
@@ -5800,7 +5813,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156" s="1" t="s">
         <v>20</v>
       </c>
@@ -5829,7 +5842,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157" s="1" t="s">
         <v>20</v>
       </c>
@@ -5858,7 +5871,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158" s="1" t="s">
         <v>20</v>
       </c>
@@ -5887,7 +5900,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159" s="1" t="s">
         <v>24</v>
       </c>
@@ -5916,7 +5929,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -5945,7 +5958,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161" s="1" t="s">
         <v>24</v>
       </c>
@@ -5974,7 +5987,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="1" t="s">
         <v>24</v>
       </c>
@@ -6003,7 +6016,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163" s="1" t="s">
         <v>24</v>
       </c>
@@ -6032,7 +6045,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164" s="1" t="s">
         <v>25</v>
       </c>
@@ -6061,7 +6074,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165" s="1" t="s">
         <v>25</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A166" s="1" t="s">
         <v>25</v>
       </c>
@@ -6119,7 +6132,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A167" s="1" t="s">
         <v>25</v>
       </c>
@@ -6148,7 +6161,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A168" s="1" t="s">
         <v>25</v>
       </c>
@@ -6177,7 +6190,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A169" s="1" t="s">
         <v>23</v>
       </c>
@@ -6206,7 +6219,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -6235,7 +6248,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A171" s="1" t="s">
         <v>23</v>
       </c>
@@ -6264,7 +6277,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A172" s="1" t="s">
         <v>23</v>
       </c>
@@ -6293,7 +6306,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A173" s="1" t="s">
         <v>23</v>
       </c>
@@ -6322,7 +6335,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A174" s="1" t="s">
         <v>23</v>
       </c>
@@ -6351,7 +6364,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A175" s="1" t="s">
         <v>23</v>
       </c>
@@ -6380,7 +6393,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176" s="1" t="s">
         <v>23</v>
       </c>
@@ -6409,7 +6422,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A177" s="1" t="s">
         <v>23</v>
       </c>
@@ -6438,7 +6451,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A178" s="1" t="s">
         <v>23</v>
       </c>
@@ -6467,7 +6480,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A179" s="1" t="s">
         <v>23</v>
       </c>
@@ -6496,7 +6509,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A180" s="1" t="s">
         <v>23</v>
       </c>
@@ -6525,7 +6538,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A181" s="1" t="s">
         <v>23</v>
       </c>
@@ -6554,7 +6567,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A182" s="1" t="s">
         <v>23</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A183" s="1" t="s">
         <v>23</v>
       </c>
@@ -6612,7 +6625,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A184" s="1" t="s">
         <v>26</v>
       </c>
@@ -6641,7 +6654,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A185" s="1" t="s">
         <v>26</v>
       </c>
@@ -6670,7 +6683,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A186" s="1" t="s">
         <v>26</v>
       </c>
@@ -6699,7 +6712,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A187" s="1" t="s">
         <v>26</v>
       </c>
@@ -6728,7 +6741,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A188" s="1" t="s">
         <v>26</v>
       </c>
@@ -6757,7 +6770,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A189" s="1" t="s">
         <v>26</v>
       </c>
@@ -6786,7 +6799,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A190" s="1" t="s">
         <v>26</v>
       </c>
@@ -6815,7 +6828,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A191" s="1" t="s">
         <v>26</v>
       </c>
@@ -6844,7 +6857,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A192" s="1" t="s">
         <v>26</v>
       </c>
@@ -6873,7 +6886,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A193" s="1" t="s">
         <v>26</v>
       </c>
@@ -6902,7 +6915,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A194" s="1" t="s">
         <v>26</v>
       </c>
@@ -6931,7 +6944,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A195" s="1" t="s">
         <v>26</v>
       </c>
@@ -6960,7 +6973,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A196" s="1" t="s">
         <v>26</v>
       </c>
@@ -6989,7 +7002,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A197" s="1" t="s">
         <v>26</v>
       </c>
@@ -7018,7 +7031,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A198" s="1" t="s">
         <v>27</v>
       </c>
@@ -7047,7 +7060,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A199" s="1" t="s">
         <v>27</v>
       </c>
@@ -7076,7 +7089,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A200" s="1" t="s">
         <v>27</v>
       </c>
@@ -7105,7 +7118,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A201" s="1" t="s">
         <v>27</v>
       </c>
@@ -7134,7 +7147,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A202" s="1" t="s">
         <v>27</v>
       </c>
@@ -7163,7 +7176,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A203" s="1" t="s">
         <v>28</v>
       </c>
@@ -7192,7 +7205,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A204" s="1" t="s">
         <v>28</v>
       </c>
@@ -7221,7 +7234,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A205" s="1" t="s">
         <v>28</v>
       </c>
@@ -7250,7 +7263,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A206" s="1" t="s">
         <v>28</v>
       </c>
@@ -7279,7 +7292,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A207" s="1" t="s">
         <v>28</v>
       </c>
@@ -7308,7 +7321,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A208" s="1" t="s">
         <v>28</v>
       </c>
@@ -7337,7 +7350,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A209" s="1" t="s">
         <v>28</v>
       </c>
@@ -7366,7 +7379,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A210" s="1" t="s">
         <v>28</v>
       </c>
@@ -7395,7 +7408,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A211" s="1" t="s">
         <v>28</v>
       </c>
@@ -7424,7 +7437,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A212" s="1" t="s">
         <v>28</v>
       </c>
@@ -7453,7 +7466,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A213" s="1" t="s">
         <v>28</v>
       </c>
@@ -7482,7 +7495,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A214" s="1" t="s">
         <v>28</v>
       </c>
@@ -7511,7 +7524,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A215" s="1" t="s">
         <v>28</v>
       </c>
@@ -7540,7 +7553,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A216" s="1" t="s">
         <v>28</v>
       </c>
@@ -7569,7 +7582,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A217" s="1" t="s">
         <v>29</v>
       </c>
@@ -7598,7 +7611,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A218" s="1" t="s">
         <v>29</v>
       </c>
@@ -7627,7 +7640,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A219" s="1" t="s">
         <v>29</v>
       </c>
@@ -7656,7 +7669,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A220" s="1" t="s">
         <v>29</v>
       </c>
@@ -7685,7 +7698,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A221" s="1" t="s">
         <v>29</v>
       </c>
@@ -7714,7 +7727,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A222" s="1" t="s">
         <v>30</v>
       </c>
@@ -7743,7 +7756,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A223" s="1" t="s">
         <v>30</v>
       </c>
@@ -7772,7 +7785,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A224" s="1" t="s">
         <v>30</v>
       </c>
@@ -7801,7 +7814,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A225" s="1" t="s">
         <v>30</v>
       </c>
@@ -7830,7 +7843,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A226" s="1" t="s">
         <v>30</v>
       </c>
@@ -7859,7 +7872,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A227" s="1" t="s">
         <v>30</v>
       </c>
@@ -7888,7 +7901,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A228" s="1" t="s">
         <v>30</v>
       </c>
@@ -7917,7 +7930,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A229" s="1" t="s">
         <v>30</v>
       </c>
@@ -7946,7 +7959,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A230" s="1" t="s">
         <v>30</v>
       </c>
@@ -7975,7 +7988,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A231" s="1" t="s">
         <v>31</v>
       </c>
@@ -8004,7 +8017,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A232" s="1" t="s">
         <v>31</v>
       </c>
@@ -8033,7 +8046,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A233" s="1" t="s">
         <v>31</v>
       </c>
@@ -8062,7 +8075,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A234" s="1" t="s">
         <v>31</v>
       </c>
@@ -8091,7 +8104,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A235" s="1" t="s">
         <v>31</v>
       </c>
@@ -8120,7 +8133,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A236" s="1" t="s">
         <v>32</v>
       </c>
@@ -8149,7 +8162,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A237" s="1" t="s">
         <v>32</v>
       </c>
@@ -8178,7 +8191,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A238" s="1" t="s">
         <v>32</v>
       </c>
@@ -8207,7 +8220,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A239" s="1" t="s">
         <v>32</v>
       </c>
@@ -8236,7 +8249,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A240" s="1" t="s">
         <v>32</v>
       </c>
@@ -8265,7 +8278,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A241" s="1" t="s">
         <v>31</v>
       </c>
@@ -8294,7 +8307,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A242" s="1" t="s">
         <v>31</v>
       </c>
@@ -8323,7 +8336,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A243" s="1" t="s">
         <v>31</v>
       </c>
@@ -8352,7 +8365,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A244" s="1" t="s">
         <v>31</v>
       </c>
@@ -8381,7 +8394,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A245" s="1" t="s">
         <v>31</v>
       </c>
@@ -8410,7 +8423,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A246" s="1" t="s">
         <v>31</v>
       </c>
@@ -8439,7 +8452,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A247" s="1" t="s">
         <v>31</v>
       </c>
@@ -8468,7 +8481,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A248" s="1" t="s">
         <v>31</v>
       </c>
@@ -8497,7 +8510,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A249" s="1" t="s">
         <v>31</v>
       </c>
@@ -8526,7 +8539,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A250" s="1" t="s">
         <v>31</v>
       </c>
@@ -8555,7 +8568,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A251" s="1" t="s">
         <v>31</v>
       </c>
@@ -8584,7 +8597,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A252" s="1" t="s">
         <v>31</v>
       </c>
@@ -8613,7 +8626,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A253" s="1" t="s">
         <v>31</v>
       </c>
@@ -8642,7 +8655,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A254" s="1" t="s">
         <v>31</v>
       </c>
@@ -8671,7 +8684,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A255" s="1" t="s">
         <v>31</v>
       </c>
@@ -8700,7 +8713,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A256" s="1" t="s">
         <v>32</v>
       </c>
@@ -8729,7 +8742,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A257" s="1" t="s">
         <v>32</v>
       </c>
@@ -8758,7 +8771,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A258" s="1" t="s">
         <v>32</v>
       </c>
@@ -8787,7 +8800,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A259" s="1" t="s">
         <v>32</v>
       </c>
@@ -8816,7 +8829,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A260" s="1" t="s">
         <v>32</v>
       </c>
@@ -8845,7 +8858,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A261" s="1" t="s">
         <v>33</v>
       </c>
@@ -8874,7 +8887,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A262" s="1" t="s">
         <v>33</v>
       </c>
@@ -8903,7 +8916,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A263" s="1" t="s">
         <v>33</v>
       </c>
@@ -8932,7 +8945,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A264" s="1" t="s">
         <v>33</v>
       </c>
@@ -8961,7 +8974,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A265" s="1" t="s">
         <v>33</v>
       </c>
@@ -8990,7 +9003,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A266" s="1" t="s">
         <v>33</v>
       </c>
@@ -9019,7 +9032,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A267" s="1" t="s">
         <v>33</v>
       </c>
@@ -9048,7 +9061,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A268" s="1" t="s">
         <v>33</v>
       </c>
@@ -9077,7 +9090,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A269" s="1" t="s">
         <v>33</v>
       </c>
@@ -9106,7 +9119,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A270" s="1" t="s">
         <v>33</v>
       </c>
@@ -9135,7 +9148,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A271" s="1" t="s">
         <v>34</v>
       </c>
@@ -9164,7 +9177,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A272" s="1" t="s">
         <v>34</v>
       </c>
@@ -9193,7 +9206,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A273" s="1" t="s">
         <v>34</v>
       </c>
@@ -9222,7 +9235,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A274" s="1" t="s">
         <v>34</v>
       </c>
@@ -9251,7 +9264,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A275" s="1" t="s">
         <v>34</v>
       </c>
@@ -9280,9 +9293,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A276" s="8">
-        <v>42402</v>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A276" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B276" s="10">
         <v>0.31458333333333333</v>
@@ -9309,9 +9322,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A277" s="8">
-        <v>42402</v>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A277" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B277" s="10">
         <v>0.31388888888888888</v>
@@ -9338,9 +9351,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A278" s="8">
-        <v>42402</v>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A278" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B278" s="10">
         <v>0.31319444444444444</v>
@@ -9367,9 +9380,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A279" s="8">
-        <v>42402</v>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A279" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B279" s="10">
         <v>0.31319444444444444</v>
@@ -9396,9 +9409,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A280" s="8">
-        <v>42402</v>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A280" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B280" s="10">
         <v>0.3125</v>
@@ -9425,9 +9438,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A281" s="13">
-        <v>42401</v>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A281" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B281" s="14">
         <v>0.98749999999999993</v>
@@ -9454,9 +9467,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A282" s="13">
-        <v>42401</v>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A282" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B282" s="14">
         <v>0.9868055555555556</v>
@@ -9483,9 +9496,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A283" s="13">
-        <v>42401</v>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A283" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B283" s="14">
         <v>0.98611111111111116</v>
@@ -9512,9 +9525,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A284" s="13">
-        <v>42401</v>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A284" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B284" s="14">
         <v>0.97916666666666663</v>
@@ -9541,9 +9554,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A285" s="13">
-        <v>42401</v>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A285" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B285" s="14">
         <v>0.97013888888888899</v>
@@ -9570,9 +9583,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A286" s="13">
-        <v>42401</v>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A286" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B286" s="14">
         <v>0.77847222222222223</v>
@@ -9599,9 +9612,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A287" s="13">
-        <v>42401</v>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A287" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B287" s="14">
         <v>0.77777777777777779</v>
@@ -9628,9 +9641,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A288" s="13">
-        <v>42401</v>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A288" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B288" s="14">
         <v>0.77638888888888891</v>
@@ -9657,9 +9670,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A289" s="13">
-        <v>42401</v>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A289" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B289" s="14">
         <v>0.77430555555555547</v>
@@ -9686,9 +9699,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A290" s="13">
-        <v>42401</v>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A290" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B290" s="14">
         <v>0.77361111111111114</v>
@@ -9715,9 +9728,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A291" s="13">
-        <v>42401</v>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A291" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B291" s="10">
         <v>0.78194444444444444</v>
@@ -9744,9 +9757,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A292" s="13">
-        <v>42401</v>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A292" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B292" s="10">
         <v>0.78194444444444444</v>
@@ -9773,9 +9786,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A293" s="13">
-        <v>42401</v>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A293" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B293" s="10">
         <v>0.78125</v>
@@ -9802,9 +9815,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A294" s="13">
-        <v>42401</v>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A294" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B294" s="10">
         <v>0.78055555555555556</v>
@@ -9831,9 +9844,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A295" s="13">
-        <v>42401</v>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A295" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B295" s="10">
         <v>0.77986111111111101</v>
@@ -9860,9 +9873,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A296" s="13">
-        <v>42403</v>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A296" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B296" s="10">
         <v>0.95694444444444438</v>
@@ -9889,9 +9902,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A297" s="13">
-        <v>42403</v>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A297" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B297" s="10">
         <v>0.95624999999999993</v>
@@ -9918,9 +9931,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A298" s="13">
-        <v>42403</v>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A298" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B298" s="10">
         <v>0.95624999999999993</v>
@@ -9947,9 +9960,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A299" s="13">
-        <v>42403</v>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A299" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B299" s="10">
         <v>0.9555555555555556</v>
@@ -9976,9 +9989,9 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A300" s="13">
-        <v>42403</v>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A300" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B300" s="10">
         <v>0.95486111111111116</v>
@@ -10002,6 +10015,151 @@
         <v>15.747999999999999</v>
       </c>
       <c r="I300" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A301" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B301" s="16">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="C301" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E301" s="1">
+        <v>329</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H301" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I301" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A302" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B302" s="16">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C302" s="1">
+        <v>9.23</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E302" s="1">
+        <v>62</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H302" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I302" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A303" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B303" s="16">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="C303" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="D303" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E303" s="1">
+        <v>46</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H303" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I303" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A304" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B304" s="16">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="C304" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="D304" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E304" s="1">
+        <v>27</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H304" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I304" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A305" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B305" s="16">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="C305" s="1">
+        <v>9.41</v>
+      </c>
+      <c r="D305" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E305" s="1">
+        <v>43</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H305" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I305" s="9">
         <v>1.1020000000000001</v>
       </c>
     </row>

--- a/DSLSpeedTestData.xlsx
+++ b/DSLSpeedTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="40">
   <si>
     <t>LAN</t>
   </si>
@@ -1307,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301:D305"/>
+    <sheetView tabSelected="1" topLeftCell="A303" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G311" sqref="G311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -10163,6 +10163,151 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A306" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B306" s="16">
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="C306" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E306" s="1">
+        <v>33</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H306" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I306" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A307" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B307" s="16">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="C307" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="D307" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E307" s="1">
+        <v>24</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H307" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I307" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A308" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B308" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="C308" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D308" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="E308" s="1">
+        <v>26</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H308" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I308" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A309" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B309" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="C309" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="D309" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E309" s="1">
+        <v>41</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H309" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I309" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A310" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B310" s="16">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="C310" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E310" s="1">
+        <v>25</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H310" s="9">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I310" s="9">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
